--- a/RunControl_Template.xlsx
+++ b/RunControl_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
   <si>
     <t>Sheet #</t>
   </si>
@@ -370,12 +370,6 @@
     <t>EAN.CP</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -523,12 +517,6 @@
     <t>R2F1</t>
   </si>
   <si>
-    <t>R1F2</t>
-  </si>
-  <si>
-    <t>R1F3</t>
-  </si>
-  <si>
     <t>R3F1</t>
   </si>
   <si>
@@ -562,12 +550,6 @@
     <t>Fixed Return Fixed discount rate and investment return, 7.5% each, with 5-year period of low contributions; Smoothed</t>
   </si>
   <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each; Typical</t>
-  </si>
-  <si>
     <t>Non-Negative ADC and ERC</t>
   </si>
   <si>
@@ -583,18 +565,6 @@
     <t>MA_0_pct</t>
   </si>
   <si>
-    <t>R2F2</t>
-  </si>
-  <si>
-    <t>R2F3</t>
-  </si>
-  <si>
-    <t>R3F3</t>
-  </si>
-  <si>
-    <t>R4F3</t>
-  </si>
-  <si>
     <t>R5F3</t>
   </si>
   <si>
@@ -604,52 +574,25 @@
     <t>Fixed discount rate 7.5%, stochastic investment return arithmetic mean 7.5%, sd 12%; Smoothed</t>
   </si>
   <si>
-    <t>Fixed discount rate 7.5%, fixed investment return 5.5%; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed discount rate 7.5%, fixed investment return  9.5%; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed discount rate 7.5%, stochastic investment return arithmetic mean 7.5%, sd 12%; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each, with 5-year period of low returns; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each, with 5-year period of low contributions; Unsmoothed</t>
-  </si>
-  <si>
-    <t>Fixed discount rate 7.5%, fixed investment return 5.5%; Typical</t>
-  </si>
-  <si>
-    <t>Fixed discount rate 7.5%, fixed investment return  9.5%; Typical</t>
-  </si>
-  <si>
-    <t>Fixed discount rate 7.5%, stochastic investment return arithmetic mean 7.5%, sd 12%; Typical</t>
-  </si>
-  <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each, with 5-year period of low returns; Typical</t>
-  </si>
-  <si>
-    <t>Fixed Return Fixed discount rate and investment return, 7.5% each, with 5-year period of low contributions; Typical</t>
-  </si>
-  <si>
     <t>R5F2</t>
   </si>
   <si>
     <t>R6F2</t>
   </si>
   <si>
-    <t>R3F2</t>
-  </si>
-  <si>
-    <t>R4F2</t>
-  </si>
-  <si>
     <t>EEC_fixed</t>
   </si>
   <si>
     <t>whether EEC is fixed as a % of payroll</t>
+  </si>
+  <si>
+    <t>rp2014.hybrid</t>
+  </si>
+  <si>
+    <t>az-srs</t>
+  </si>
+  <si>
+    <t>pa-psers</t>
   </si>
 </sst>
 </file>
@@ -834,7 +777,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,19 +793,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1357,13 +1300,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,13 +1404,13 @@
         <v>40</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AK2" s="6"/>
       <c r="AL2" s="4" t="s">
@@ -1515,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AK3" s="4"/>
       <c r="AN3" s="4" t="s">
@@ -1532,68 +1475,68 @@
       </c>
     </row>
     <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="28" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="32" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="23"/>
-      <c r="AJ4" s="28" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
       <c r="AM4" s="24" t="s">
         <v>70</v>
       </c>
@@ -1667,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>92</v>
@@ -1700,19 +1643,19 @@
         <v>101</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="AJ5" s="9" t="s">
         <v>106</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>102</v>
@@ -1735,10 +1678,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6" s="11" t="b">
         <f>TRUE()</f>
@@ -1799,7 +1742,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W6" s="12">
         <v>7.4999999999999997E-2</v>
@@ -1811,16 +1754,16 @@
         <v>112</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB6">
         <v>30</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD6" s="14">
         <v>0.25</v>
@@ -1841,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK6" s="19">
         <v>0.8</v>
@@ -1850,7 +1793,7 @@
         <v>200</v>
       </c>
       <c r="AM6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN6">
         <v>10</v>
@@ -1859,7 +1802,7 @@
         <v>200</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1867,10 +1810,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" s="11" t="b">
         <f>TRUE()</f>
@@ -1931,7 +1874,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W7" s="12">
         <v>5.5E-2</v>
@@ -1943,16 +1886,16 @@
         <v>112</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB7">
         <v>30</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD7" s="14">
         <v>0.25</v>
@@ -1973,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK7" s="19">
         <v>0.8</v>
@@ -1982,7 +1925,7 @@
         <v>200</v>
       </c>
       <c r="AM7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN7">
         <v>10</v>
@@ -1991,7 +1934,7 @@
         <v>200</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -1999,10 +1942,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C8" s="11" t="b">
         <f>TRUE()</f>
@@ -2063,7 +2006,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W8" s="12">
         <v>9.5000000000000001E-2</v>
@@ -2075,16 +2018,16 @@
         <v>112</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB8">
         <v>30</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD8" s="14">
         <v>0.25</v>
@@ -2105,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK8" s="19">
         <v>0.8</v>
@@ -2114,7 +2057,7 @@
         <v>200</v>
       </c>
       <c r="AM8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN8">
         <v>10</v>
@@ -2123,7 +2066,7 @@
         <v>200</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2131,10 +2074,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="b">
         <f>TRUE()</f>
@@ -2195,7 +2138,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W9" s="12">
         <v>7.4999999999999997E-2</v>
@@ -2207,16 +2150,16 @@
         <v>112</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB9">
         <v>30</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="14">
         <v>0.25</v>
@@ -2237,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK9" s="19">
         <v>0.8</v>
@@ -2246,7 +2189,7 @@
         <v>200</v>
       </c>
       <c r="AM9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN9">
         <v>10</v>
@@ -2255,7 +2198,7 @@
         <v>200</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2263,10 +2206,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="11" t="b">
         <f>TRUE()</f>
@@ -2327,7 +2270,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V10" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W10" s="12">
         <v>0</v>
@@ -2339,16 +2282,16 @@
         <v>112</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB10">
         <v>30</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD10" s="14">
         <v>0.25</v>
@@ -2369,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK10" s="19">
         <v>0.8</v>
@@ -2378,7 +2321,7 @@
         <v>200</v>
       </c>
       <c r="AM10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN10">
         <v>10</v>
@@ -2387,7 +2330,7 @@
         <v>200</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2395,10 +2338,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11" t="b">
         <f>TRUE()</f>
@@ -2459,7 +2402,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W11" s="12">
         <v>7.4999999999999997E-2</v>
@@ -2471,16 +2414,16 @@
         <v>112</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB11">
         <v>30</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD11" s="14">
         <v>0.25</v>
@@ -2501,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK11" s="19">
         <v>0.8</v>
@@ -2510,7 +2453,7 @@
         <v>200</v>
       </c>
       <c r="AM11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN11">
         <v>10</v>
@@ -2519,7 +2462,7 @@
         <v>200</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -2527,1709 +2470,157 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="28"/>
       <c r="AF12" s="26"/>
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="L13" s="35"/>
+      <c r="L13" s="28"/>
       <c r="AF13" s="26"/>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>65</v>
-      </c>
-      <c r="O14">
-        <v>65</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
-      <c r="S14" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U14" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W14" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB14">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG14" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK14" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL14">
-        <v>200</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN14">
-        <v>10</v>
-      </c>
-      <c r="AO14">
-        <v>200</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>65</v>
-      </c>
-      <c r="O15">
-        <v>65</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <v>10</v>
-      </c>
-      <c r="S15" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T15" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U15" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V15" t="s">
-        <v>160</v>
-      </c>
-      <c r="W15" s="12">
-        <v>5.5E-2</v>
-      </c>
-      <c r="X15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB15">
-        <v>10</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD15" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE15" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF15" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG15" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK15" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL15">
-        <v>200</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN15">
-        <v>10</v>
-      </c>
-      <c r="AO15">
-        <v>200</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>65</v>
-      </c>
-      <c r="O16">
-        <v>65</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-      <c r="R16">
-        <v>10</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T16" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U16" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W16" s="12">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB16">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE16" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG16" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK16" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL16">
-        <v>200</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN16">
-        <v>10</v>
-      </c>
-      <c r="AO16">
-        <v>200</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>65</v>
-      </c>
-      <c r="O17">
-        <v>65</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q17">
-        <v>10</v>
-      </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T17" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U17" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W17" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB17">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD17" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE17" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF17" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG17" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK17" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL17">
-        <v>200</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN17">
-        <v>10</v>
-      </c>
-      <c r="AO17">
-        <v>200</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>65</v>
-      </c>
-      <c r="O18">
-        <v>65</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U18" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V18" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB18">
-        <v>10</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK18" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL18">
-        <v>200</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN18">
-        <v>10</v>
-      </c>
-      <c r="AO18">
-        <v>200</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>65</v>
-      </c>
-      <c r="O19">
-        <v>65</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U19" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W19" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB19">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE19" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF19" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK19" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL19">
-        <v>200</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN19">
-        <v>10</v>
-      </c>
-      <c r="AO19">
-        <v>200</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="L20" s="35"/>
-      <c r="AF20" s="26"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="L21" s="35"/>
-      <c r="AF21" s="26"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>65</v>
-      </c>
-      <c r="O22">
-        <v>65</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="S22" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U22" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W22" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB22">
-        <v>20</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD22" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE22" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF22" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK22" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL22">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN22">
-        <v>5</v>
-      </c>
-      <c r="AO22">
-        <v>200</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>65</v>
-      </c>
-      <c r="O23">
-        <v>65</v>
-      </c>
-      <c r="P23" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
-      </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="S23" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T23" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U23" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V23" t="s">
-        <v>160</v>
-      </c>
-      <c r="W23" s="12">
-        <v>5.5E-2</v>
-      </c>
-      <c r="X23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB23">
-        <v>20</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD23" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE23" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF23" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG23" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK23" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL23">
-        <v>200</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN23">
-        <v>5</v>
-      </c>
-      <c r="AO23">
-        <v>200</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>65</v>
-      </c>
-      <c r="O24">
-        <v>65</v>
-      </c>
-      <c r="P24" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T24" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U24" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W24" s="12">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="X24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB24">
-        <v>20</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD24" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE24" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK24" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL24">
-        <v>200</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN24">
-        <v>5</v>
-      </c>
-      <c r="AO24">
-        <v>200</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>65</v>
-      </c>
-      <c r="O25">
-        <v>65</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="S25" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U25" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W25" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X25" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB25">
-        <v>20</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD25" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE25" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF25" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG25" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK25" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL25">
-        <v>200</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN25">
-        <v>5</v>
-      </c>
-      <c r="AO25">
-        <v>200</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>65</v>
-      </c>
-      <c r="O26">
-        <v>65</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T26" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U26" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V26" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="W26" s="12">
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB26">
-        <v>20</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD26" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE26" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF26" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG26" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK26" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL26">
-        <v>200</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN26">
-        <v>5</v>
-      </c>
-      <c r="AO26">
-        <v>200</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>65</v>
-      </c>
-      <c r="O27">
-        <v>65</v>
-      </c>
-      <c r="P27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="S27" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U27" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W27" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X27" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB27">
-        <v>20</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD27" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF27" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG27" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK27" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL27">
-        <v>200</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN27">
-        <v>5</v>
-      </c>
-      <c r="AO27">
-        <v>200</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP11 AP22:AP27 AP14:AP19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP11">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA11 AA22:AA27 AA14:AA19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA11">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z11 Z22:Z27 Z14:Z19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z11">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC11 AC22:AC27 AC14:AC19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC11">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C11 K22:K27 K14:K19 C14:C19 C22:C27 K6:K11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C11 K6:K11">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="N6:N11 N22:N27 N14:N19">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="N6:N11">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="P6:P11 T6:T11 T22:T27 T14:T19 P22:P27 P14:P19">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="P6:P11 T6:T11">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="Q6:R11 Q22:R27 Q14:R19">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="Q6:R11">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="S6:S11 U6:U11 W6:W11 W14:W19 S14:S19 U22:U27 U14:U19 S22:S27 W22:W27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="S6:S11 U6:U11 W6:W11">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AB6:AB11 AB22:AB27 AB14:AB19">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AB6:AB11">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AD6:AE11 AD14:AE19 AD22:AE27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AD6:AE11">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AF6:AF11 AF14:AF19 AF22:AF27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AF6:AF11">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="X6:X11 X14:X19 X22:X27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="X6:X11">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AN6:AN11 AN22:AN27 AN14:AN19">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AN6:AN11">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO11 AO22:AO27 AO14:AO19">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO11">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ11 AQ22:AQ27 AQ14:AQ19">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ11">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="V6:V11 V14:V19 V22:V27"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AI27 AG6:AI19">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="V6:V11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AI13">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ19 AJ22:AJ27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ13">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK19 AK22:AK27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK13">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="V10" location="Returns!A1" display="internal"/>
-    <hyperlink ref="V18" location="Returns!A1" display="internal"/>
-    <hyperlink ref="V26" location="Returns!A1" display="internal"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$17:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:D11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$21:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:E11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$29:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>F6:F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$25:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$44:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4237,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,12 +2645,12 @@
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B4" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4273,7 +2664,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B5" s="12">
         <v>5.5E-2</v>
@@ -4287,7 +2678,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B6" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4296,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B7" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4315,7 +2706,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B8" s="12">
         <v>5.5E-2</v>
@@ -4329,7 +2720,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B9" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4338,12 +2729,12 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B10" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4357,7 +2748,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B11" s="12">
         <v>5.5E-2</v>
@@ -4371,7 +2762,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B12" s="12">
         <v>7.4999999999999997E-2</v>
@@ -4380,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4413,18 +2804,18 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="18">
         <v>11</v>
@@ -4438,7 +2829,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B4" s="18">
         <v>11</v>
@@ -4452,7 +2843,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B5" s="18">
         <v>11</v>
@@ -4474,7 +2865,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4484,35 +2875,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -4541,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C48:C49"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4557,7 +2948,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -4567,15 +2958,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4588,23 +2979,23 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4614,26 +3005,26 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4646,15 +3037,15 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4667,15 +3058,15 @@
         <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4688,15 +3079,15 @@
         <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4709,15 +3100,15 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4727,18 +3118,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4751,44 +3142,59 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
         <v>152</v>
       </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl_Template.xlsx
+++ b/RunControl_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -778,13 +778,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,10 +787,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,14 +1159,14 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875"/>
-    <col min="2" max="2" width="16.6640625"/>
-    <col min="3" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,77 +1217,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1302,47 +1302,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.44140625"/>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="24.44140625"/>
-    <col min="10" max="11" width="17.44140625"/>
-    <col min="12" max="12" width="16.109375"/>
-    <col min="13" max="14" width="21.44140625"/>
-    <col min="15" max="15" width="24.5546875"/>
+    <col min="1" max="1" width="54.42578125"/>
+    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="24.42578125"/>
+    <col min="10" max="11" width="17.42578125"/>
+    <col min="12" max="12" width="16.140625"/>
+    <col min="13" max="14" width="21.42578125"/>
+    <col min="15" max="15" width="24.5703125"/>
     <col min="16" max="16" width="16"/>
-    <col min="17" max="21" width="12.6640625"/>
-    <col min="22" max="22" width="11.109375" customWidth="1"/>
-    <col min="23" max="32" width="12.6640625"/>
-    <col min="35" max="35" width="9" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625"/>
-    <col min="39" max="40" width="27.109375"/>
-    <col min="41" max="41" width="26.88671875"/>
-    <col min="43" max="43" width="16"/>
-    <col min="44" max="1030" width="8.5546875"/>
+    <col min="17" max="21" width="12.7109375"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="28" width="12.7109375"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="37" max="40" width="12.7109375"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="1030" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AC1" s="1" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AK1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1397,33 +1394,33 @@
       <c r="AB2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AC2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AJ2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1451,101 +1448,101 @@
       <c r="AB3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AG3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK3" s="4"/>
-      <c r="AN3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="32" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="35" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-    </row>
-    <row r="5" spans="1:43" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="23"/>
+    </row>
+    <row r="5" spans="1:43" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -1631,52 +1628,52 @@
         <v>97</v>
       </c>
       <c r="AC5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AN5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AJ5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1763,52 +1760,52 @@
         <v>30</v>
       </c>
       <c r="AC6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE6">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>200</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AL6" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AM6" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AN6" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="21" t="b">
+      <c r="AO6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL6">
-        <v>200</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN6">
-        <v>10</v>
-      </c>
-      <c r="AO6">
-        <v>200</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -1895,52 +1892,52 @@
         <v>30</v>
       </c>
       <c r="AC7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE7">
+        <v>200</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>200</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AL7" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AM7" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AN7" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG7" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="21" t="b">
+      <c r="AO7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI7" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL7">
-        <v>200</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN7">
-        <v>10</v>
-      </c>
-      <c r="AO7">
-        <v>200</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -2027,52 +2024,52 @@
         <v>30</v>
       </c>
       <c r="AC8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE8">
+        <v>200</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>200</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AL8" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AM8" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AN8" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG8" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="21" t="b">
+      <c r="AO8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI8" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL8">
-        <v>200</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN8">
-        <v>10</v>
-      </c>
-      <c r="AO8">
-        <v>200</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ8" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -2159,52 +2156,52 @@
         <v>30</v>
       </c>
       <c r="AC9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE9">
+        <v>200</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+      <c r="AH9">
+        <v>200</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AL9" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AM9" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AN9" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG9" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="21" t="b">
+      <c r="AO9" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI9" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK9" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL9">
-        <v>200</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN9">
-        <v>10</v>
-      </c>
-      <c r="AO9">
-        <v>200</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -2291,52 +2288,52 @@
         <v>30</v>
       </c>
       <c r="AC10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE10">
+        <v>200</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>200</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AL10" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AM10" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AN10" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG10" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="21" t="b">
+      <c r="AO10" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI10" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK10" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL10">
-        <v>200</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN10">
-        <v>10</v>
-      </c>
-      <c r="AO10">
-        <v>200</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ10" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -2423,82 +2420,82 @@
         <v>30</v>
       </c>
       <c r="AC11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="AE11">
+        <v>200</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>200</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AL11" s="14">
         <v>0.25</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AM11" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AN11" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG11" s="21" t="b">
+      <c r="AO11" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AH11" s="21" t="b">
+      <c r="AP11" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI11" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK11" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="AL11">
-        <v>200</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN11">
-        <v>10</v>
-      </c>
-      <c r="AO11">
-        <v>200</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ11" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="L12" s="28"/>
-      <c r="AF12" s="26"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AK12" s="19"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AD12" s="19"/>
+      <c r="AN12" s="26"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L13" s="28"/>
-      <c r="AF13" s="26"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AK13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AN13" s="26"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="V4:X4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="V4:X4"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI11">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2510,7 +2507,7 @@
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK11">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2538,11 +2535,11 @@
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AD6:AE11">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AL6:AM11">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AF6:AF11">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AN6:AN11">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
@@ -2550,26 +2547,26 @@
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AN6:AN11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AG6:AG11">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO11">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH11">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ11">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ11">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="V6:V11"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AI13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AQ13">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC13">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD6:AD13">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -2628,13 +2625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2648,7 +2645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -2676,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2704,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -2732,7 +2729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -2797,9 +2794,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2813,7 +2810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -2868,17 +2865,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -2901,7 +2898,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2938,30 +2935,30 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.44140625"/>
-    <col min="4" max="1025" width="8.5546875"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>128</v>
       </c>
@@ -2969,12 +2966,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -2998,12 +2995,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3027,12 +3024,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3040,7 +3037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3048,12 +3045,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -3069,12 +3066,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3090,12 +3087,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -3111,12 +3108,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3132,12 +3129,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -3145,7 +3142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -3153,7 +3150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3169,17 +3166,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -3187,12 +3184,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>

--- a/RunControl_Template.xlsx
+++ b/RunControl_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
   <si>
     <t>Sheet #</t>
   </si>
@@ -593,6 +593,18 @@
   </si>
   <si>
     <t>pa-psers</t>
+  </si>
+  <si>
+    <t>youngplan</t>
+  </si>
+  <si>
+    <t>oldplan</t>
+  </si>
+  <si>
+    <t>highabratio</t>
+  </si>
+  <si>
+    <t>underfundedTeachers</t>
   </si>
 </sst>
 </file>
@@ -604,7 +616,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -641,6 +653,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -726,7 +744,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,7 +796,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,18 +811,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1159,14 +1178,14 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125"/>
-    <col min="2" max="2" width="16.7109375"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="7.5546875"/>
+    <col min="2" max="2" width="16.6640625"/>
+    <col min="3" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,77 +1236,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1303,32 +1322,32 @@
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.42578125"/>
-    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="24.42578125"/>
-    <col min="10" max="11" width="17.42578125"/>
-    <col min="12" max="12" width="16.140625"/>
-    <col min="13" max="14" width="21.42578125"/>
-    <col min="15" max="15" width="24.5703125"/>
+    <col min="1" max="1" width="54.44140625"/>
+    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="24.44140625"/>
+    <col min="10" max="11" width="17.44140625"/>
+    <col min="12" max="12" width="16.109375"/>
+    <col min="13" max="14" width="21.44140625"/>
+    <col min="15" max="15" width="24.5546875"/>
     <col min="16" max="16" width="16"/>
-    <col min="17" max="21" width="12.7109375"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="28" width="12.7109375"/>
+    <col min="17" max="21" width="12.6640625"/>
+    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="23" max="28" width="12.6640625"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="37" max="40" width="12.7109375"/>
+    <col min="37" max="40" width="12.6640625"/>
     <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="44" max="1030" width="8.5703125"/>
+    <col min="44" max="1030" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1358,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1471,60 +1490,60 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="29" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="29" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
       <c r="AF4" s="24" t="s">
         <v>70</v>
       </c>
@@ -1532,17 +1551,17 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
-      <c r="AK4" s="33" t="s">
+      <c r="AK4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
       <c r="AO4" s="17"/>
       <c r="AP4" s="27"/>
       <c r="AQ4" s="23"/>
     </row>
-    <row r="5" spans="1:43" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -1937,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -2069,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -2201,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -2465,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="L12" s="28"/>
       <c r="AD12" s="19"/>
@@ -2473,7 +2492,7 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="L13" s="28"/>
       <c r="AD13" s="19"/>
       <c r="AN13" s="26"/>
@@ -2482,17 +2501,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI11">
@@ -2578,42 +2597,24 @@
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DropDowns!$A$17:$A$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6:D11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DropDowns!$A$21:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:E11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DropDowns!$A$29:$A$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>F6:F11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DropDowns!$A$25:$A$26</xm:f>
-          </x14:formula1>
-          <xm:sqref>G6:G11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DropDowns!$A$37:$A$41</xm:f>
+            <xm:f>DropDowns!$A$32:$A$36</xm:f>
           </x14:formula1>
           <xm:sqref>H6:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DropDowns!$A$44:$A$46</xm:f>
+            <xm:f>DropDowns!$A$39:$A$41</xm:f>
           </x14:formula1>
           <xm:sqref>I6:I11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$20:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:G11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2629,9 +2630,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -2794,9 +2795,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -2865,17 +2866,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2929,36 +2930,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125"/>
+    <col min="1" max="1" width="23.44140625"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.42578125"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="3" max="3" width="85.44140625"/>
+    <col min="4" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>128</v>
       </c>
@@ -2966,12 +2967,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -2995,12 +2996,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3024,173 +3025,145 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>140</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
         <v>187</v>
       </c>
     </row>
